--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C4B865-8F16-46B3-BD17-3910BF7A48DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040B8312-303D-4C8B-B1EC-778635012802}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1850" windowWidth="22450" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="8030" yWindow="2930" windowWidth="28800" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Data (zile)</t>
   </si>
@@ -72,33 +72,6 @@
   </si>
   <si>
     <t>interval varsta</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>10-19</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>40-49</t>
-  </si>
-  <si>
-    <t>60-69</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>20-29</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>&gt;80</t>
   </si>
   <si>
     <t>Frecventa</t>
@@ -169,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,9 +163,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F157"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,89 +510,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>30</v>
+      <c r="K2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="S2" s="2"/>
     </row>
@@ -655,8 +625,8 @@
         <f>D3/C3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
+      <c r="J3" s="7">
+        <v>0.9</v>
       </c>
       <c r="K3" s="3">
         <v>715</v>
@@ -713,8 +683,8 @@
         <f t="shared" ref="I4:I67" si="0">H4/C4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>15</v>
+      <c r="J4" s="7">
+        <v>10.19</v>
       </c>
       <c r="K4" s="3">
         <v>983</v>
@@ -771,8 +741,8 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
+      <c r="J5" s="7">
+        <v>20.29</v>
       </c>
       <c r="K5" s="3">
         <v>2081</v>
@@ -829,8 +799,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
+      <c r="J6" s="7">
+        <v>30.39</v>
       </c>
       <c r="K6" s="3">
         <v>3601</v>
@@ -887,8 +857,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
+      <c r="J7" s="7">
+        <v>40.49</v>
       </c>
       <c r="K7" s="3">
         <v>5784</v>
@@ -945,8 +915,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
+      <c r="J8" s="7">
+        <v>50.59</v>
       </c>
       <c r="K8" s="3">
         <v>5280</v>
@@ -1003,8 +973,8 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>18</v>
+      <c r="J9" s="7">
+        <v>60.69</v>
       </c>
       <c r="K9" s="3">
         <v>3605</v>
@@ -1061,8 +1031,8 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
+      <c r="J10" s="7">
+        <v>70.790000000000006</v>
       </c>
       <c r="K10" s="3">
         <v>2136</v>
@@ -1119,8 +1089,8 @@
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>22</v>
+      <c r="J11" s="7">
+        <v>80</v>
       </c>
       <c r="K11" s="3">
         <v>1436</v>

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE6480-764C-47C8-87BA-16D6E5D4AAD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9D109-80EF-4347-978F-55D7BCA7F75E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13310" yWindow="800" windowWidth="22220" windowHeight="18990" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="1830" yWindow="1520" windowWidth="20990" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:T179"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:T26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2283,7 +2283,7 @@
         <v>1.87</v>
       </c>
       <c r="S26" s="16">
-        <v>3364</v>
+        <v>8582</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>47</v>
@@ -10265,9 +10265,15 @@
       <c r="F176" s="7">
         <v>28992</v>
       </c>
-      <c r="G176" s="16"/>
-      <c r="H176" s="25"/>
-      <c r="I176" s="16"/>
+      <c r="G176" s="16">
+        <v>24147</v>
+      </c>
+      <c r="H176" s="25">
+        <v>1345</v>
+      </c>
+      <c r="I176" s="16">
+        <v>0.01</v>
+      </c>
       <c r="J176" s="26"/>
       <c r="K176" s="16"/>
       <c r="L176" s="21"/>
@@ -10297,9 +10303,15 @@
       <c r="F177" s="7">
         <v>29289</v>
       </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="16"/>
+      <c r="G177" s="16">
+        <v>23946</v>
+      </c>
+      <c r="H177" s="25">
+        <v>1378</v>
+      </c>
+      <c r="I177" s="16">
+        <v>0.01</v>
+      </c>
       <c r="J177" s="26"/>
       <c r="K177" s="16"/>
       <c r="L177" s="21"/>
@@ -10329,9 +10341,15 @@
       <c r="F178" s="7">
         <v>29872</v>
       </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="16"/>
+      <c r="G178" s="16">
+        <v>21444</v>
+      </c>
+      <c r="H178" s="25">
+        <v>1350</v>
+      </c>
+      <c r="I178" s="16">
+        <v>0.01</v>
+      </c>
       <c r="J178" s="26"/>
       <c r="K178" s="16"/>
       <c r="L178" s="21"/>
@@ -10361,9 +10379,15 @@
       <c r="F179" s="7">
         <v>30117</v>
       </c>
-      <c r="G179" s="16"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="16"/>
+      <c r="G179" s="16">
+        <v>13968</v>
+      </c>
+      <c r="H179" s="25">
+        <v>1145</v>
+      </c>
+      <c r="I179" s="16">
+        <v>0.01</v>
+      </c>
       <c r="J179" s="26"/>
       <c r="K179" s="16"/>
       <c r="L179" s="21"/>
@@ -10373,6 +10397,64 @@
       <c r="P179" s="21"/>
       <c r="Q179" s="16"/>
       <c r="R179" s="21"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A180" s="14">
+        <v>44053</v>
+      </c>
+      <c r="B180" s="15">
+        <v>178</v>
+      </c>
+      <c r="C180" s="2">
+        <v>62547</v>
+      </c>
+      <c r="D180" s="3">
+        <v>29507</v>
+      </c>
+      <c r="E180" s="2">
+        <v>2729</v>
+      </c>
+      <c r="F180" s="3">
+        <v>30311</v>
+      </c>
+      <c r="G180" s="2">
+        <v>6607</v>
+      </c>
+      <c r="H180" s="4">
+        <v>779</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A181" s="14">
+        <v>44054</v>
+      </c>
+      <c r="B181" s="15">
+        <v>179</v>
+      </c>
+      <c r="C181" s="2">
+        <v>63762</v>
+      </c>
+      <c r="D181" s="3">
+        <v>30413</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2764</v>
+      </c>
+      <c r="F181" s="3">
+        <v>30585</v>
+      </c>
+      <c r="G181" s="2">
+        <v>19511</v>
+      </c>
+      <c r="H181" s="4">
+        <v>1215</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\nou\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9D109-80EF-4347-978F-55D7BCA7F75E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08015CE6-F82E-4EE2-B21D-980F3B42A953}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1520" windowWidth="20990" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="17610" yWindow="310" windowWidth="19180" windowHeight="15520" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +383,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:T181"/>
+  <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="E122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L159" sqref="L17:L159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2341,8 +2344,12 @@
       <c r="R27" s="21">
         <v>1.83</v>
       </c>
-      <c r="S27" s="22"/>
-      <c r="T27" s="7"/>
+      <c r="S27" s="22">
+        <v>8693</v>
+      </c>
+      <c r="T27" s="36">
+        <v>44120</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
@@ -10454,6 +10461,159 @@
       </c>
       <c r="I181" s="2">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="14">
+        <v>44055</v>
+      </c>
+      <c r="B182" s="15">
+        <v>180</v>
+      </c>
+      <c r="C182" s="2">
+        <v>65177</v>
+      </c>
+      <c r="D182" s="3">
+        <v>31322</v>
+      </c>
+      <c r="E182" s="2">
+        <v>2807</v>
+      </c>
+      <c r="F182" s="3">
+        <v>31048</v>
+      </c>
+      <c r="G182" s="2">
+        <v>22781</v>
+      </c>
+      <c r="H182" s="4">
+        <v>1415</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A183" s="14">
+        <v>44056</v>
+      </c>
+      <c r="B183" s="15">
+        <v>181</v>
+      </c>
+      <c r="C183" s="2">
+        <v>66631</v>
+      </c>
+      <c r="D183" s="3">
+        <v>32224</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2860</v>
+      </c>
+      <c r="F183" s="3">
+        <v>31547</v>
+      </c>
+      <c r="G183" s="2">
+        <v>22643</v>
+      </c>
+      <c r="H183" s="4">
+        <v>1454</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A184" s="14">
+        <v>44057</v>
+      </c>
+      <c r="B184" s="15">
+        <v>182</v>
+      </c>
+      <c r="C184" s="2">
+        <v>68046</v>
+      </c>
+      <c r="D184" s="3">
+        <v>33222</v>
+      </c>
+      <c r="E184" s="2">
+        <v>2904</v>
+      </c>
+      <c r="F184" s="3">
+        <v>31920</v>
+      </c>
+      <c r="G184" s="2">
+        <v>27787</v>
+      </c>
+      <c r="H184" s="4">
+        <v>1415</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A185" s="14">
+        <v>44058</v>
+      </c>
+      <c r="B185" s="15">
+        <v>183</v>
+      </c>
+      <c r="C185" s="2">
+        <v>69374</v>
+      </c>
+      <c r="D185" s="3">
+        <v>34086</v>
+      </c>
+      <c r="E185" s="2">
+        <v>2954</v>
+      </c>
+      <c r="F185" s="3">
+        <v>32334</v>
+      </c>
+      <c r="G185" s="2">
+        <v>23986</v>
+      </c>
+      <c r="H185" s="4">
+        <v>1328</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A186" s="14">
+        <v>44059</v>
+      </c>
+      <c r="B186" s="15">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2">
+        <v>70461</v>
+      </c>
+      <c r="D186" s="3">
+        <v>34883</v>
+      </c>
+      <c r="E186" s="2">
+        <v>2991</v>
+      </c>
+      <c r="F186" s="3">
+        <v>32587</v>
+      </c>
+      <c r="G186" s="2">
+        <v>11846</v>
+      </c>
+      <c r="H186" s="4">
+        <v>1087</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A187" s="14">
+        <v>44060</v>
+      </c>
+      <c r="B187" s="15">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\nou\Practica_covid19_UTCN\Database\Norbert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08015CE6-F82E-4EE2-B21D-980F3B42A953}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A04FEB7-B8D9-4A5D-B647-46C6775DEFD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="310" windowWidth="19180" windowHeight="15520" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="18980" yWindow="1080" windowWidth="19180" windowHeight="19600" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,6 +370,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,9 +386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:T187"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L159" sqref="L17:L159"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C194" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,37 +735,37 @@
   <sheetData>
     <row r="1" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="35"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
@@ -2347,7 +2347,7 @@
       <c r="S27" s="22">
         <v>8693</v>
       </c>
-      <c r="T27" s="36">
+      <c r="T27" s="31">
         <v>44120</v>
       </c>
     </row>
@@ -10614,6 +10614,56 @@
       </c>
       <c r="B187" s="15">
         <v>185</v>
+      </c>
+      <c r="C187" s="2">
+        <v>71194</v>
+      </c>
+      <c r="D187" s="3">
+        <v>35406</v>
+      </c>
+      <c r="E187" s="2">
+        <v>3029</v>
+      </c>
+      <c r="F187" s="3">
+        <v>32759</v>
+      </c>
+      <c r="G187" s="2">
+        <v>6862</v>
+      </c>
+      <c r="H187" s="4">
+        <v>733</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="14">
+        <v>44061</v>
+      </c>
+      <c r="B188" s="15">
+        <v>186</v>
+      </c>
+      <c r="C188" s="2">
+        <v>72208</v>
+      </c>
+      <c r="D188" s="3">
+        <v>35999</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3074</v>
+      </c>
+      <c r="F188" s="3">
+        <v>33135</v>
+      </c>
+      <c r="G188" s="2">
+        <v>21334</v>
+      </c>
+      <c r="H188" s="4">
+        <v>1014</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3AEBD7-905F-4FCD-8F6C-683E0D180276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD366B-6C75-4016-A6AF-076EAF6AFFBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,6 +367,21 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,21 +395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:T193"/>
+  <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R175" sqref="R175"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K189" sqref="K189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,44 +737,44 @@
     <col min="16" max="16" width="8.7265625" style="6"/>
     <col min="17" max="17" width="8.7265625" style="2"/>
     <col min="18" max="18" width="9.1796875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" style="37" customWidth="1"/>
-    <col min="20" max="20" width="20" style="34" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" style="32" customWidth="1"/>
+    <col min="20" max="20" width="20" style="29" customWidth="1"/>
     <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="32"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
@@ -831,10 +831,10 @@
       <c r="R2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
       <c r="R3" s="26">
         <v>0</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="31">
         <v>3</v>
       </c>
       <c r="T3" s="7" t="s">
@@ -951,7 +951,7 @@
       <c r="R4" s="26">
         <v>0</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="30">
         <v>12</v>
       </c>
       <c r="T4" s="7" t="s">
@@ -1011,7 +1011,7 @@
       <c r="R5" s="26">
         <v>0</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="31">
         <v>124</v>
       </c>
       <c r="T5" s="7" t="s">
@@ -1071,7 +1071,7 @@
       <c r="R6" s="26">
         <v>0</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="30">
         <v>294</v>
       </c>
       <c r="T6" s="7" t="s">
@@ -1131,7 +1131,7 @@
       <c r="R7" s="26">
         <v>0</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="31">
         <v>1327</v>
       </c>
       <c r="T7" s="7" t="s">
@@ -1191,7 +1191,7 @@
       <c r="R8" s="26">
         <v>0</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="30">
         <v>2104</v>
       </c>
       <c r="T8" s="7" t="s">
@@ -1251,7 +1251,7 @@
       <c r="R9" s="26">
         <v>0</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="31">
         <v>2436</v>
       </c>
       <c r="T9" s="7" t="s">
@@ -1311,7 +1311,7 @@
       <c r="R10" s="26">
         <v>0</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="30">
         <v>2446</v>
       </c>
       <c r="T10" s="7" t="s">
@@ -1371,7 +1371,7 @@
       <c r="R11" s="26">
         <v>0</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="31">
         <v>2290</v>
       </c>
       <c r="T11" s="7" t="s">
@@ -1431,7 +1431,7 @@
       <c r="R12" s="26">
         <v>0</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="30">
         <v>2127</v>
       </c>
       <c r="T12" s="7" t="s">
@@ -1491,7 +1491,7 @@
       <c r="R13" s="26">
         <v>0</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="31">
         <v>2199</v>
       </c>
       <c r="T13" s="7" t="s">
@@ -1554,7 +1554,7 @@
       <c r="R14" s="20">
         <v>0</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="30">
         <v>1509</v>
       </c>
       <c r="T14" s="7" t="s">
@@ -1617,7 +1617,7 @@
       <c r="R15" s="20">
         <v>0</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="31">
         <v>1199</v>
       </c>
       <c r="T15" s="7" t="s">
@@ -1680,7 +1680,7 @@
       <c r="R16" s="20">
         <v>0</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="30">
         <v>1187</v>
       </c>
       <c r="T16" s="7" t="s">
@@ -1743,7 +1743,7 @@
       <c r="R17" s="20">
         <v>2.25</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="31">
         <v>1222</v>
       </c>
       <c r="T17" s="7" t="s">
@@ -1806,7 +1806,7 @@
       <c r="R18" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="30">
         <v>1520</v>
       </c>
       <c r="T18" s="7" t="s">
@@ -1869,7 +1869,7 @@
       <c r="R19" s="20">
         <v>2.16</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="31">
         <v>2046</v>
       </c>
       <c r="T19" s="7" t="s">
@@ -1932,7 +1932,7 @@
       <c r="R20" s="20">
         <v>2.11</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="30">
         <v>2268</v>
       </c>
       <c r="T20" s="7" t="s">
@@ -1995,7 +1995,7 @@
       <c r="R21" s="20">
         <v>2.0699999999999998</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="31">
         <v>2660</v>
       </c>
       <c r="T21" s="7" t="s">
@@ -2058,7 +2058,7 @@
       <c r="R22" s="20">
         <v>2.0099999999999998</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="30">
         <v>3562</v>
       </c>
       <c r="T22" s="7" t="s">
@@ -2117,7 +2117,7 @@
       <c r="R23" s="20">
         <v>1.97</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="31">
         <v>4923</v>
       </c>
       <c r="T23" s="7" t="s">
@@ -2176,7 +2176,7 @@
       <c r="R24" s="20">
         <v>1.94</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="30">
         <v>7340</v>
       </c>
       <c r="T24" s="7" t="s">
@@ -2235,7 +2235,7 @@
       <c r="R25" s="20">
         <v>1.9</v>
       </c>
-      <c r="S25" s="36">
+      <c r="S25" s="31">
         <v>8388</v>
       </c>
       <c r="T25" s="7" t="s">
@@ -2294,7 +2294,7 @@
       <c r="R26" s="20">
         <v>1.87</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="30">
         <v>8582</v>
       </c>
       <c r="T26" s="7" t="s">
@@ -2353,7 +2353,7 @@
       <c r="R27" s="20">
         <v>1.83</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="31">
         <v>8693</v>
       </c>
       <c r="T27" s="7" t="s">
@@ -2412,7 +2412,7 @@
       <c r="R28" s="20">
         <v>1.8</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="30">
         <v>8804</v>
       </c>
       <c r="T28" s="7" t="s">
@@ -2471,8 +2471,8 @@
       <c r="R29" s="20">
         <v>1.77</v>
       </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="33"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="28"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
@@ -2526,8 +2526,8 @@
       <c r="R30" s="20">
         <v>1.74</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="33"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="28"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
@@ -2581,8 +2581,8 @@
       <c r="R31" s="20">
         <v>1.7</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="33"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="28"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
@@ -2636,8 +2636,8 @@
       <c r="R32" s="20">
         <v>1.68</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="33"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="28"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
@@ -2691,8 +2691,8 @@
       <c r="R33" s="20">
         <v>1.66</v>
       </c>
-      <c r="S33" s="35"/>
-      <c r="T33" s="33"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="28"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
@@ -2746,8 +2746,8 @@
       <c r="R34" s="20">
         <v>1.65</v>
       </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="33"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="28"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
@@ -2801,8 +2801,8 @@
       <c r="R35" s="20">
         <v>1.62</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="33"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="28"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
@@ -2856,8 +2856,8 @@
       <c r="R36" s="20">
         <v>1.59</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="33"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="28"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
@@ -2911,8 +2911,8 @@
       <c r="R37" s="20">
         <v>1.56</v>
       </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="33"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="28"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
@@ -2966,8 +2966,8 @@
       <c r="R38" s="20">
         <v>1.52</v>
       </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="33"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="28"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
@@ -3021,8 +3021,8 @@
       <c r="R39" s="20">
         <v>1.48</v>
       </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="33"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="28"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
@@ -3076,8 +3076,8 @@
       <c r="R40" s="20">
         <v>1.44</v>
       </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="33"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="28"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
@@ -3131,8 +3131,8 @@
       <c r="R41" s="20">
         <v>1.4</v>
       </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="33"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="28"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
@@ -3186,8 +3186,8 @@
       <c r="R42" s="20">
         <v>1.37</v>
       </c>
-      <c r="S42" s="35"/>
-      <c r="T42" s="33"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="28"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
@@ -3241,8 +3241,8 @@
       <c r="R43" s="20">
         <v>1.33</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="33"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="28"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
@@ -3296,8 +3296,8 @@
       <c r="R44" s="20">
         <v>1.3</v>
       </c>
-      <c r="S44" s="35"/>
-      <c r="T44" s="33"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="28"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
@@ -3351,8 +3351,8 @@
       <c r="R45" s="20">
         <v>1.26</v>
       </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="33"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
@@ -3406,8 +3406,8 @@
       <c r="R46" s="20">
         <v>1.24</v>
       </c>
-      <c r="S46" s="35"/>
-      <c r="T46" s="33"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="28"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
@@ -3461,8 +3461,8 @@
       <c r="R47" s="20">
         <v>1.21</v>
       </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="33"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="28"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
@@ -3516,8 +3516,8 @@
       <c r="R48" s="20">
         <v>1.19</v>
       </c>
-      <c r="S48" s="35"/>
-      <c r="T48" s="33"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="28"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
@@ -3571,8 +3571,8 @@
       <c r="R49" s="20">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="33"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="28"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
@@ -3626,8 +3626,8 @@
       <c r="R50" s="20">
         <v>1.1399999999999999</v>
       </c>
-      <c r="S50" s="35"/>
-      <c r="T50" s="33"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="28"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
@@ -3681,8 +3681,8 @@
       <c r="R51" s="20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="S51" s="35"/>
-      <c r="T51" s="33"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="28"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
@@ -3736,8 +3736,8 @@
       <c r="R52" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S52" s="35"/>
-      <c r="T52" s="33"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="28"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
@@ -3791,8 +3791,8 @@
       <c r="R53" s="20">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="33"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="28"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
@@ -3846,8 +3846,8 @@
       <c r="R54" s="20">
         <v>1.08</v>
       </c>
-      <c r="S54" s="35"/>
-      <c r="T54" s="33"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="28"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
@@ -3901,8 +3901,8 @@
       <c r="R55" s="20">
         <v>1.06</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="33"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="28"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
@@ -3956,8 +3956,8 @@
       <c r="R56" s="20">
         <v>1.05</v>
       </c>
-      <c r="S56" s="35"/>
-      <c r="T56" s="33"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="28"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
@@ -4011,8 +4011,8 @@
       <c r="R57" s="20">
         <v>1.05</v>
       </c>
-      <c r="S57" s="35"/>
-      <c r="T57" s="33"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="28"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
@@ -4066,8 +4066,8 @@
       <c r="R58" s="20">
         <v>1.04</v>
       </c>
-      <c r="S58" s="35"/>
-      <c r="T58" s="33"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="28"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="13">
@@ -4121,8 +4121,8 @@
       <c r="R59" s="20">
         <v>1.02</v>
       </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="33"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
@@ -4176,8 +4176,8 @@
       <c r="R60" s="20">
         <v>1.02</v>
       </c>
-      <c r="S60" s="35"/>
-      <c r="T60" s="33"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
@@ -4231,8 +4231,8 @@
       <c r="R61" s="20">
         <v>1.01</v>
       </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="33"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
@@ -4286,8 +4286,8 @@
       <c r="R62" s="20">
         <v>1.01</v>
       </c>
-      <c r="S62" s="35"/>
-      <c r="T62" s="33"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="28"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
@@ -4341,8 +4341,8 @@
       <c r="R63" s="20">
         <v>1.01</v>
       </c>
-      <c r="S63" s="35"/>
-      <c r="T63" s="33"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="28"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
@@ -4396,8 +4396,8 @@
       <c r="R64" s="20">
         <v>1</v>
       </c>
-      <c r="S64" s="35"/>
-      <c r="T64" s="33"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="28"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="13">
@@ -4451,8 +4451,8 @@
       <c r="R65" s="20">
         <v>1</v>
       </c>
-      <c r="S65" s="35"/>
-      <c r="T65" s="33"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="13">
@@ -4506,8 +4506,8 @@
       <c r="R66" s="20">
         <v>1</v>
       </c>
-      <c r="S66" s="35"/>
-      <c r="T66" s="33"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="28"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="13">
@@ -4561,8 +4561,8 @@
       <c r="R67" s="20">
         <v>1</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="33"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="28"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="13">
@@ -4616,8 +4616,8 @@
       <c r="R68" s="20">
         <v>0.99</v>
       </c>
-      <c r="S68" s="35"/>
-      <c r="T68" s="33"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="28"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="13">
@@ -4671,8 +4671,8 @@
       <c r="R69" s="20">
         <v>0.99</v>
       </c>
-      <c r="S69" s="35"/>
-      <c r="T69" s="33"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="28"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="13">
@@ -4726,8 +4726,8 @@
       <c r="R70" s="20">
         <v>0.99</v>
       </c>
-      <c r="S70" s="35"/>
-      <c r="T70" s="33"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="28"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="13">
@@ -4781,8 +4781,8 @@
       <c r="R71" s="20">
         <v>0.99</v>
       </c>
-      <c r="S71" s="35"/>
-      <c r="T71" s="33"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="28"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="13">
@@ -4836,8 +4836,8 @@
       <c r="R72" s="20">
         <v>0.99</v>
       </c>
-      <c r="S72" s="35"/>
-      <c r="T72" s="33"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="28"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
@@ -4891,8 +4891,8 @@
       <c r="R73" s="20">
         <v>0.99</v>
       </c>
-      <c r="S73" s="35"/>
-      <c r="T73" s="33"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="28"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="13">
@@ -4946,8 +4946,8 @@
       <c r="R74" s="20">
         <v>0.98</v>
       </c>
-      <c r="S74" s="35"/>
-      <c r="T74" s="33"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="28"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
@@ -5001,8 +5001,8 @@
       <c r="R75" s="20">
         <v>0.98</v>
       </c>
-      <c r="S75" s="35"/>
-      <c r="T75" s="33"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="28"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="13">
@@ -5056,8 +5056,8 @@
       <c r="R76" s="20">
         <v>0.98</v>
       </c>
-      <c r="S76" s="35"/>
-      <c r="T76" s="33"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="28"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
@@ -5111,8 +5111,8 @@
       <c r="R77" s="20">
         <v>0.98</v>
       </c>
-      <c r="S77" s="35"/>
-      <c r="T77" s="33"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="28"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="13">
@@ -5166,8 +5166,8 @@
       <c r="R78" s="20">
         <v>0.97</v>
       </c>
-      <c r="S78" s="35"/>
-      <c r="T78" s="33"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="28"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
@@ -5221,8 +5221,8 @@
       <c r="R79" s="20">
         <v>0.97</v>
       </c>
-      <c r="S79" s="35"/>
-      <c r="T79" s="33"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="28"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
@@ -5276,8 +5276,8 @@
       <c r="R80" s="20">
         <v>0.96</v>
       </c>
-      <c r="S80" s="35"/>
-      <c r="T80" s="33"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="28"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
@@ -5331,8 +5331,8 @@
       <c r="R81" s="20">
         <v>0.95</v>
       </c>
-      <c r="S81" s="35"/>
-      <c r="T81" s="33"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="28"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
@@ -5386,8 +5386,8 @@
       <c r="R82" s="20">
         <v>0.94</v>
       </c>
-      <c r="S82" s="35"/>
-      <c r="T82" s="33"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="28"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
@@ -5441,8 +5441,8 @@
       <c r="R83" s="20">
         <v>0.92</v>
       </c>
-      <c r="S83" s="35"/>
-      <c r="T83" s="33"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="28"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="13">
@@ -5496,8 +5496,8 @@
       <c r="R84" s="20">
         <v>0.91</v>
       </c>
-      <c r="S84" s="35"/>
-      <c r="T84" s="33"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="28"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="13">
@@ -5551,8 +5551,8 @@
       <c r="R85" s="20">
         <v>0.9</v>
       </c>
-      <c r="S85" s="35"/>
-      <c r="T85" s="33"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="28"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="13">
@@ -5606,8 +5606,8 @@
       <c r="R86" s="20">
         <v>0.89</v>
       </c>
-      <c r="S86" s="35"/>
-      <c r="T86" s="33"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="28"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="13">
@@ -5661,8 +5661,8 @@
       <c r="R87" s="20">
         <v>0.89</v>
       </c>
-      <c r="S87" s="35"/>
-      <c r="T87" s="33"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="28"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
@@ -5716,8 +5716,8 @@
       <c r="R88" s="20">
         <v>0.89</v>
       </c>
-      <c r="S88" s="35"/>
-      <c r="T88" s="33"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="28"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
@@ -5771,8 +5771,8 @@
       <c r="R89" s="20">
         <v>0.9</v>
       </c>
-      <c r="S89" s="35"/>
-      <c r="T89" s="33"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="28"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
@@ -5826,8 +5826,8 @@
       <c r="R90" s="20">
         <v>0.9</v>
       </c>
-      <c r="S90" s="35"/>
-      <c r="T90" s="33"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="28"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="13">
@@ -5881,8 +5881,8 @@
       <c r="R91" s="20">
         <v>0.92</v>
       </c>
-      <c r="S91" s="35"/>
-      <c r="T91" s="33"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="28"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
@@ -5936,8 +5936,8 @@
       <c r="R92" s="20">
         <v>0.93</v>
       </c>
-      <c r="S92" s="35"/>
-      <c r="T92" s="33"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="28"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="13">
@@ -5991,8 +5991,8 @@
       <c r="R93" s="20">
         <v>0.94</v>
       </c>
-      <c r="S93" s="35"/>
-      <c r="T93" s="33"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="28"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="13">
@@ -6046,8 +6046,8 @@
       <c r="R94" s="20">
         <v>0.95</v>
       </c>
-      <c r="S94" s="35"/>
-      <c r="T94" s="33"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="28"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="13">
@@ -6101,8 +6101,8 @@
       <c r="R95" s="20">
         <v>0.97</v>
       </c>
-      <c r="S95" s="35"/>
-      <c r="T95" s="33"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="28"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="13">
@@ -6156,8 +6156,8 @@
       <c r="R96" s="20">
         <v>0.98</v>
       </c>
-      <c r="S96" s="35"/>
-      <c r="T96" s="33"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="28"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="13">
@@ -6211,8 +6211,8 @@
       <c r="R97" s="20">
         <v>1</v>
       </c>
-      <c r="S97" s="35"/>
-      <c r="T97" s="33"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="28"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
@@ -6266,8 +6266,8 @@
       <c r="R98" s="20">
         <v>1.01</v>
       </c>
-      <c r="S98" s="35"/>
-      <c r="T98" s="33"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="28"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="13">
@@ -6321,8 +6321,8 @@
       <c r="R99" s="20">
         <v>1.03</v>
       </c>
-      <c r="S99" s="35"/>
-      <c r="T99" s="33"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="28"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="13">
@@ -6376,8 +6376,8 @@
       <c r="R100" s="20">
         <v>1.04</v>
       </c>
-      <c r="S100" s="35"/>
-      <c r="T100" s="33"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="28"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="13">
@@ -6431,8 +6431,8 @@
       <c r="R101" s="20">
         <v>1.05</v>
       </c>
-      <c r="S101" s="35"/>
-      <c r="T101" s="33"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="28"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="13">
@@ -6486,8 +6486,8 @@
       <c r="R102" s="20">
         <v>1.06</v>
       </c>
-      <c r="S102" s="35"/>
-      <c r="T102" s="33"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="28"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="13">
@@ -6541,8 +6541,8 @@
       <c r="R103" s="20">
         <v>1.07</v>
       </c>
-      <c r="S103" s="35"/>
-      <c r="T103" s="33"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="28"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="13">
@@ -6596,8 +6596,8 @@
       <c r="R104" s="20">
         <v>1.08</v>
       </c>
-      <c r="S104" s="35"/>
-      <c r="T104" s="33"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="28"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="13">
@@ -6651,8 +6651,8 @@
       <c r="R105" s="20">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S105" s="35"/>
-      <c r="T105" s="33"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="28"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="13">
@@ -6706,8 +6706,8 @@
       <c r="R106" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S106" s="35"/>
-      <c r="T106" s="33"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="28"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="13">
@@ -6761,8 +6761,8 @@
       <c r="R107" s="20">
         <v>1.1100000000000001</v>
       </c>
-      <c r="S107" s="35"/>
-      <c r="T107" s="33"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="28"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="13">
@@ -6816,8 +6816,8 @@
       <c r="R108" s="20">
         <v>1.1299999999999999</v>
       </c>
-      <c r="S108" s="35"/>
-      <c r="T108" s="33"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="28"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
@@ -6871,8 +6871,8 @@
       <c r="R109" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S109" s="35"/>
-      <c r="T109" s="33"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="28"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="13">
@@ -6926,8 +6926,8 @@
       <c r="R110" s="20">
         <v>1.17</v>
       </c>
-      <c r="S110" s="35"/>
-      <c r="T110" s="33"/>
+      <c r="S110" s="30"/>
+      <c r="T110" s="28"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="13">
@@ -6981,8 +6981,8 @@
       <c r="R111" s="20">
         <v>1.18</v>
       </c>
-      <c r="S111" s="35"/>
-      <c r="T111" s="33"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="28"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="13">
@@ -7036,8 +7036,8 @@
       <c r="R112" s="20">
         <v>1.19</v>
       </c>
-      <c r="S112" s="35"/>
-      <c r="T112" s="33"/>
+      <c r="S112" s="30"/>
+      <c r="T112" s="28"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="13">
@@ -7091,8 +7091,8 @@
       <c r="R113" s="20">
         <v>1.2</v>
       </c>
-      <c r="S113" s="35"/>
-      <c r="T113" s="33"/>
+      <c r="S113" s="30"/>
+      <c r="T113" s="28"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="13">
@@ -7146,8 +7146,8 @@
       <c r="R114" s="20">
         <v>1.21</v>
       </c>
-      <c r="S114" s="35"/>
-      <c r="T114" s="33"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="28"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="13">
@@ -7201,8 +7201,8 @@
       <c r="R115" s="20">
         <v>1.21</v>
       </c>
-      <c r="S115" s="35"/>
-      <c r="T115" s="33"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="28"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="13">
@@ -7256,8 +7256,8 @@
       <c r="R116" s="20">
         <v>1.21</v>
       </c>
-      <c r="S116" s="35"/>
-      <c r="T116" s="33"/>
+      <c r="S116" s="30"/>
+      <c r="T116" s="28"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="13">
@@ -7311,8 +7311,8 @@
       <c r="R117" s="20">
         <v>1.22</v>
       </c>
-      <c r="S117" s="35"/>
-      <c r="T117" s="33"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="28"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="13">
@@ -7366,8 +7366,8 @@
       <c r="R118" s="20">
         <v>1.22</v>
       </c>
-      <c r="S118" s="35"/>
-      <c r="T118" s="33"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="28"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="13">
@@ -7421,8 +7421,8 @@
       <c r="R119" s="20">
         <v>1.21</v>
       </c>
-      <c r="S119" s="35"/>
-      <c r="T119" s="33"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="28"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="13">
@@ -7476,8 +7476,8 @@
       <c r="R120" s="20">
         <v>1.21</v>
       </c>
-      <c r="S120" s="35"/>
-      <c r="T120" s="33"/>
+      <c r="S120" s="30"/>
+      <c r="T120" s="28"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="13">
@@ -7531,8 +7531,8 @@
       <c r="R121" s="20">
         <v>1.2</v>
       </c>
-      <c r="S121" s="35"/>
-      <c r="T121" s="33"/>
+      <c r="S121" s="30"/>
+      <c r="T121" s="28"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="13">
@@ -7586,8 +7586,8 @@
       <c r="R122" s="20">
         <v>1.19</v>
       </c>
-      <c r="S122" s="35"/>
-      <c r="T122" s="33"/>
+      <c r="S122" s="30"/>
+      <c r="T122" s="28"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="13">
@@ -7641,8 +7641,8 @@
       <c r="R123" s="20">
         <v>1.19</v>
       </c>
-      <c r="S123" s="35"/>
-      <c r="T123" s="33"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="28"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="13">
@@ -7696,8 +7696,8 @@
       <c r="R124" s="20">
         <v>1.18</v>
       </c>
-      <c r="S124" s="35"/>
-      <c r="T124" s="33"/>
+      <c r="S124" s="30"/>
+      <c r="T124" s="28"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="13">
@@ -7751,8 +7751,8 @@
       <c r="R125" s="20">
         <v>1.17</v>
       </c>
-      <c r="S125" s="35"/>
-      <c r="T125" s="33"/>
+      <c r="S125" s="30"/>
+      <c r="T125" s="28"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="13">
@@ -7806,8 +7806,8 @@
       <c r="R126" s="20">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S126" s="35"/>
-      <c r="T126" s="33"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="28"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="13">
@@ -7861,8 +7861,8 @@
       <c r="R127" s="20">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S127" s="35"/>
-      <c r="T127" s="33"/>
+      <c r="S127" s="30"/>
+      <c r="T127" s="28"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="13">
@@ -7916,8 +7916,8 @@
       <c r="R128" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S128" s="35"/>
-      <c r="T128" s="33"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="28"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="13">
@@ -7971,8 +7971,8 @@
       <c r="R129" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S129" s="35"/>
-      <c r="T129" s="33"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="28"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="13">
@@ -8026,8 +8026,8 @@
       <c r="R130" s="20">
         <v>1.1499999999999999</v>
       </c>
-      <c r="S130" s="35"/>
-      <c r="T130" s="33"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="28"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="13">
@@ -8081,8 +8081,8 @@
       <c r="R131" s="20">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S131" s="35"/>
-      <c r="T131" s="33"/>
+      <c r="S131" s="30"/>
+      <c r="T131" s="28"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="13">
@@ -8136,8 +8136,8 @@
       <c r="R132" s="20">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S132" s="35"/>
-      <c r="T132" s="33"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="28"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="13">
@@ -8191,8 +8191,8 @@
       <c r="R133" s="20">
         <v>1.1599999999999999</v>
       </c>
-      <c r="S133" s="35"/>
-      <c r="T133" s="33"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="28"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="13">
@@ -8246,8 +8246,8 @@
       <c r="R134" s="20">
         <v>1.17</v>
       </c>
-      <c r="S134" s="35"/>
-      <c r="T134" s="33"/>
+      <c r="S134" s="30"/>
+      <c r="T134" s="28"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="13">
@@ -8301,8 +8301,8 @@
       <c r="R135" s="20">
         <v>1.17</v>
       </c>
-      <c r="S135" s="35"/>
-      <c r="T135" s="33"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="28"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="13">
@@ -8356,8 +8356,8 @@
       <c r="R136" s="20">
         <v>1.18</v>
       </c>
-      <c r="S136" s="35"/>
-      <c r="T136" s="33"/>
+      <c r="S136" s="30"/>
+      <c r="T136" s="28"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="13">
@@ -8411,8 +8411,8 @@
       <c r="R137" s="20">
         <v>1.19</v>
       </c>
-      <c r="S137" s="35"/>
-      <c r="T137" s="33"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="28"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="13">
@@ -8466,8 +8466,8 @@
       <c r="R138" s="20">
         <v>1.19</v>
       </c>
-      <c r="S138" s="35"/>
-      <c r="T138" s="33"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="28"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="13">
@@ -8521,8 +8521,8 @@
       <c r="R139" s="20">
         <v>1.2</v>
       </c>
-      <c r="S139" s="35"/>
-      <c r="T139" s="33"/>
+      <c r="S139" s="30"/>
+      <c r="T139" s="28"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="13">
@@ -8576,8 +8576,8 @@
       <c r="R140" s="20">
         <v>1.21</v>
       </c>
-      <c r="S140" s="35"/>
-      <c r="T140" s="33"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="28"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="13">
@@ -8631,8 +8631,8 @@
       <c r="R141" s="20">
         <v>1.21</v>
       </c>
-      <c r="S141" s="35"/>
-      <c r="T141" s="33"/>
+      <c r="S141" s="30"/>
+      <c r="T141" s="28"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="13">
@@ -8686,8 +8686,8 @@
       <c r="R142" s="20">
         <v>1.22</v>
       </c>
-      <c r="S142" s="35"/>
-      <c r="T142" s="33"/>
+      <c r="S142" s="30"/>
+      <c r="T142" s="28"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="13">
@@ -8741,8 +8741,8 @@
       <c r="R143" s="20">
         <v>1.22</v>
       </c>
-      <c r="S143" s="35"/>
-      <c r="T143" s="33"/>
+      <c r="S143" s="30"/>
+      <c r="T143" s="28"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="13">
@@ -8796,8 +8796,8 @@
       <c r="R144" s="20">
         <v>1.22</v>
       </c>
-      <c r="S144" s="35"/>
-      <c r="T144" s="33"/>
+      <c r="S144" s="30"/>
+      <c r="T144" s="28"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="13">
@@ -8851,8 +8851,8 @@
       <c r="R145" s="20">
         <v>1.22</v>
       </c>
-      <c r="S145" s="35"/>
-      <c r="T145" s="33"/>
+      <c r="S145" s="30"/>
+      <c r="T145" s="28"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="13">
@@ -8906,8 +8906,8 @@
       <c r="R146" s="20">
         <v>1.22</v>
       </c>
-      <c r="S146" s="35"/>
-      <c r="T146" s="33"/>
+      <c r="S146" s="30"/>
+      <c r="T146" s="28"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="13">
@@ -8961,8 +8961,8 @@
       <c r="R147" s="20">
         <v>1.22</v>
       </c>
-      <c r="S147" s="35"/>
-      <c r="T147" s="33"/>
+      <c r="S147" s="30"/>
+      <c r="T147" s="28"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="13">
@@ -9016,8 +9016,8 @@
       <c r="R148" s="20">
         <v>1.22</v>
       </c>
-      <c r="S148" s="35"/>
-      <c r="T148" s="33"/>
+      <c r="S148" s="30"/>
+      <c r="T148" s="28"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="13">
@@ -9071,8 +9071,8 @@
       <c r="R149" s="20">
         <v>1.22</v>
       </c>
-      <c r="S149" s="35"/>
-      <c r="T149" s="33"/>
+      <c r="S149" s="30"/>
+      <c r="T149" s="28"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="13">
@@ -9126,8 +9126,8 @@
       <c r="R150" s="20">
         <v>1.21</v>
       </c>
-      <c r="S150" s="35"/>
-      <c r="T150" s="33"/>
+      <c r="S150" s="30"/>
+      <c r="T150" s="28"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="13">
@@ -9181,8 +9181,8 @@
       <c r="R151" s="20">
         <v>1.21</v>
       </c>
-      <c r="S151" s="35"/>
-      <c r="T151" s="33"/>
+      <c r="S151" s="30"/>
+      <c r="T151" s="28"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
@@ -9236,8 +9236,8 @@
       <c r="R152" s="20">
         <v>1.21</v>
       </c>
-      <c r="S152" s="35"/>
-      <c r="T152" s="33"/>
+      <c r="S152" s="30"/>
+      <c r="T152" s="28"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="13">
@@ -9291,8 +9291,8 @@
       <c r="R153" s="20">
         <v>1.21</v>
       </c>
-      <c r="S153" s="35"/>
-      <c r="T153" s="33"/>
+      <c r="S153" s="30"/>
+      <c r="T153" s="28"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="13">
@@ -9346,8 +9346,8 @@
       <c r="R154" s="20">
         <v>1.21</v>
       </c>
-      <c r="S154" s="35"/>
-      <c r="T154" s="33"/>
+      <c r="S154" s="30"/>
+      <c r="T154" s="28"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="13">
@@ -9401,8 +9401,8 @@
       <c r="R155" s="20">
         <v>1.21</v>
       </c>
-      <c r="S155" s="35"/>
-      <c r="T155" s="33"/>
+      <c r="S155" s="30"/>
+      <c r="T155" s="28"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="13">
@@ -9456,8 +9456,8 @@
       <c r="R156" s="20">
         <v>1.2</v>
       </c>
-      <c r="S156" s="35"/>
-      <c r="T156" s="33"/>
+      <c r="S156" s="30"/>
+      <c r="T156" s="28"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="13">
@@ -9511,8 +9511,8 @@
       <c r="R157" s="20">
         <v>1.2</v>
       </c>
-      <c r="S157" s="35"/>
-      <c r="T157" s="33"/>
+      <c r="S157" s="30"/>
+      <c r="T157" s="28"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
@@ -9566,8 +9566,8 @@
       <c r="R158" s="20">
         <v>1.2</v>
       </c>
-      <c r="S158" s="35"/>
-      <c r="T158" s="33"/>
+      <c r="S158" s="30"/>
+      <c r="T158" s="28"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="13">
@@ -9621,8 +9621,8 @@
       <c r="R159" s="20">
         <v>1.22</v>
       </c>
-      <c r="S159" s="35"/>
-      <c r="T159" s="33"/>
+      <c r="S159" s="30"/>
+      <c r="T159" s="28"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="13">
@@ -9662,8 +9662,8 @@
       <c r="P160" s="20"/>
       <c r="Q160" s="15"/>
       <c r="R160" s="20"/>
-      <c r="S160" s="35"/>
-      <c r="T160" s="33"/>
+      <c r="S160" s="30"/>
+      <c r="T160" s="28"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="13">
@@ -9703,8 +9703,8 @@
       <c r="P161" s="20"/>
       <c r="Q161" s="15"/>
       <c r="R161" s="20"/>
-      <c r="S161" s="35"/>
-      <c r="T161" s="33"/>
+      <c r="S161" s="30"/>
+      <c r="T161" s="28"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="13">
@@ -9744,8 +9744,8 @@
       <c r="P162" s="20"/>
       <c r="Q162" s="15"/>
       <c r="R162" s="20"/>
-      <c r="S162" s="35"/>
-      <c r="T162" s="33"/>
+      <c r="S162" s="30"/>
+      <c r="T162" s="28"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="13">
@@ -9785,8 +9785,8 @@
       <c r="P163" s="20"/>
       <c r="Q163" s="15"/>
       <c r="R163" s="20"/>
-      <c r="S163" s="35"/>
-      <c r="T163" s="33"/>
+      <c r="S163" s="30"/>
+      <c r="T163" s="28"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="13">
@@ -9826,8 +9826,8 @@
       <c r="P164" s="20"/>
       <c r="Q164" s="15"/>
       <c r="R164" s="20"/>
-      <c r="S164" s="35"/>
-      <c r="T164" s="33"/>
+      <c r="S164" s="30"/>
+      <c r="T164" s="28"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="13">
@@ -9867,8 +9867,8 @@
       <c r="P165" s="20"/>
       <c r="Q165" s="15"/>
       <c r="R165" s="20"/>
-      <c r="S165" s="35"/>
-      <c r="T165" s="33"/>
+      <c r="S165" s="30"/>
+      <c r="T165" s="28"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="13">
@@ -9908,8 +9908,8 @@
       <c r="P166" s="20"/>
       <c r="Q166" s="15"/>
       <c r="R166" s="20"/>
-      <c r="S166" s="35"/>
-      <c r="T166" s="33"/>
+      <c r="S166" s="30"/>
+      <c r="T166" s="28"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="13">
@@ -9949,8 +9949,8 @@
       <c r="P167" s="20"/>
       <c r="Q167" s="15"/>
       <c r="R167" s="20"/>
-      <c r="S167" s="35"/>
-      <c r="T167" s="33"/>
+      <c r="S167" s="30"/>
+      <c r="T167" s="28"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="13">
@@ -9990,8 +9990,8 @@
       <c r="P168" s="20"/>
       <c r="Q168" s="15"/>
       <c r="R168" s="20"/>
-      <c r="S168" s="35"/>
-      <c r="T168" s="33"/>
+      <c r="S168" s="30"/>
+      <c r="T168" s="28"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="13">
@@ -10031,8 +10031,8 @@
       <c r="P169" s="20"/>
       <c r="Q169" s="15"/>
       <c r="R169" s="20"/>
-      <c r="S169" s="35"/>
-      <c r="T169" s="33"/>
+      <c r="S169" s="30"/>
+      <c r="T169" s="28"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="13">
@@ -10072,8 +10072,8 @@
       <c r="P170" s="20"/>
       <c r="Q170" s="15"/>
       <c r="R170" s="20"/>
-      <c r="S170" s="35"/>
-      <c r="T170" s="33"/>
+      <c r="S170" s="30"/>
+      <c r="T170" s="28"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="13">
@@ -10113,8 +10113,8 @@
       <c r="P171" s="20"/>
       <c r="Q171" s="15"/>
       <c r="R171" s="20"/>
-      <c r="S171" s="35"/>
-      <c r="T171" s="33"/>
+      <c r="S171" s="30"/>
+      <c r="T171" s="28"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="13">
@@ -10154,8 +10154,8 @@
       <c r="P172" s="20"/>
       <c r="Q172" s="15"/>
       <c r="R172" s="20"/>
-      <c r="S172" s="35"/>
-      <c r="T172" s="33"/>
+      <c r="S172" s="30"/>
+      <c r="T172" s="28"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="13">
@@ -10195,8 +10195,8 @@
       <c r="P173" s="20"/>
       <c r="Q173" s="15"/>
       <c r="R173" s="20"/>
-      <c r="S173" s="35"/>
-      <c r="T173" s="33"/>
+      <c r="S173" s="30"/>
+      <c r="T173" s="28"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="13">
@@ -10236,8 +10236,8 @@
       <c r="P174" s="20"/>
       <c r="Q174" s="15"/>
       <c r="R174" s="20"/>
-      <c r="S174" s="35"/>
-      <c r="T174" s="33"/>
+      <c r="S174" s="30"/>
+      <c r="T174" s="28"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="13">
@@ -10277,8 +10277,8 @@
       <c r="P175" s="20"/>
       <c r="Q175" s="15"/>
       <c r="R175" s="20"/>
-      <c r="S175" s="35"/>
-      <c r="T175" s="33"/>
+      <c r="S175" s="30"/>
+      <c r="T175" s="28"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="13">
@@ -10317,8 +10317,8 @@
       <c r="P176" s="20"/>
       <c r="Q176" s="15"/>
       <c r="R176" s="20"/>
-      <c r="S176" s="35"/>
-      <c r="T176" s="33"/>
+      <c r="S176" s="30"/>
+      <c r="T176" s="28"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" s="13">
@@ -10357,8 +10357,8 @@
       <c r="P177" s="20"/>
       <c r="Q177" s="15"/>
       <c r="R177" s="20"/>
-      <c r="S177" s="35"/>
-      <c r="T177" s="33"/>
+      <c r="S177" s="30"/>
+      <c r="T177" s="28"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="13">
@@ -10397,8 +10397,8 @@
       <c r="P178" s="20"/>
       <c r="Q178" s="15"/>
       <c r="R178" s="20"/>
-      <c r="S178" s="35"/>
-      <c r="T178" s="33"/>
+      <c r="S178" s="30"/>
+      <c r="T178" s="28"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="13">
@@ -10437,8 +10437,8 @@
       <c r="P179" s="20"/>
       <c r="Q179" s="15"/>
       <c r="R179" s="20"/>
-      <c r="S179" s="35"/>
-      <c r="T179" s="33"/>
+      <c r="S179" s="30"/>
+      <c r="T179" s="28"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" s="13">
@@ -10477,8 +10477,8 @@
       <c r="P180" s="20"/>
       <c r="Q180" s="15"/>
       <c r="R180" s="20"/>
-      <c r="S180" s="35"/>
-      <c r="T180" s="33"/>
+      <c r="S180" s="30"/>
+      <c r="T180" s="28"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="13">
@@ -10517,8 +10517,8 @@
       <c r="P181" s="20"/>
       <c r="Q181" s="15"/>
       <c r="R181" s="20"/>
-      <c r="S181" s="35"/>
-      <c r="T181" s="33"/>
+      <c r="S181" s="30"/>
+      <c r="T181" s="28"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" s="13">
@@ -10557,8 +10557,8 @@
       <c r="P182" s="20"/>
       <c r="Q182" s="15"/>
       <c r="R182" s="20"/>
-      <c r="S182" s="35"/>
-      <c r="T182" s="33"/>
+      <c r="S182" s="30"/>
+      <c r="T182" s="28"/>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="13">
@@ -10597,8 +10597,8 @@
       <c r="P183" s="20"/>
       <c r="Q183" s="15"/>
       <c r="R183" s="20"/>
-      <c r="S183" s="35"/>
-      <c r="T183" s="33"/>
+      <c r="S183" s="30"/>
+      <c r="T183" s="28"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" s="13">
@@ -10637,8 +10637,8 @@
       <c r="P184" s="20"/>
       <c r="Q184" s="15"/>
       <c r="R184" s="20"/>
-      <c r="S184" s="35"/>
-      <c r="T184" s="33"/>
+      <c r="S184" s="30"/>
+      <c r="T184" s="28"/>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" s="13">
@@ -10677,8 +10677,8 @@
       <c r="P185" s="20"/>
       <c r="Q185" s="15"/>
       <c r="R185" s="20"/>
-      <c r="S185" s="35"/>
-      <c r="T185" s="33"/>
+      <c r="S185" s="30"/>
+      <c r="T185" s="28"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="13">
@@ -10717,8 +10717,8 @@
       <c r="P186" s="20"/>
       <c r="Q186" s="15"/>
       <c r="R186" s="20"/>
-      <c r="S186" s="35"/>
-      <c r="T186" s="33"/>
+      <c r="S186" s="30"/>
+      <c r="T186" s="28"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" s="13">
@@ -10757,8 +10757,8 @@
       <c r="P187" s="20"/>
       <c r="Q187" s="15"/>
       <c r="R187" s="20"/>
-      <c r="S187" s="35"/>
-      <c r="T187" s="33"/>
+      <c r="S187" s="30"/>
+      <c r="T187" s="28"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="13">
@@ -10797,8 +10797,8 @@
       <c r="P188" s="20"/>
       <c r="Q188" s="15"/>
       <c r="R188" s="20"/>
-      <c r="S188" s="35"/>
-      <c r="T188" s="33"/>
+      <c r="S188" s="30"/>
+      <c r="T188" s="28"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="13">
@@ -10837,8 +10837,8 @@
       <c r="P189" s="20"/>
       <c r="Q189" s="15"/>
       <c r="R189" s="20"/>
-      <c r="S189" s="35"/>
-      <c r="T189" s="33"/>
+      <c r="S189" s="30"/>
+      <c r="T189" s="28"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="13">
@@ -10877,8 +10877,8 @@
       <c r="P190" s="20"/>
       <c r="Q190" s="15"/>
       <c r="R190" s="20"/>
-      <c r="S190" s="35"/>
-      <c r="T190" s="33"/>
+      <c r="S190" s="30"/>
+      <c r="T190" s="28"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="13">
@@ -10917,8 +10917,8 @@
       <c r="P191" s="20"/>
       <c r="Q191" s="15"/>
       <c r="R191" s="20"/>
-      <c r="S191" s="35"/>
-      <c r="T191" s="33"/>
+      <c r="S191" s="30"/>
+      <c r="T191" s="28"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="13">
@@ -10957,8 +10957,8 @@
       <c r="P192" s="20"/>
       <c r="Q192" s="15"/>
       <c r="R192" s="20"/>
-      <c r="S192" s="35"/>
-      <c r="T192" s="33"/>
+      <c r="S192" s="30"/>
+      <c r="T192" s="28"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" s="13">
@@ -10997,8 +10997,124 @@
       <c r="P193" s="20"/>
       <c r="Q193" s="15"/>
       <c r="R193" s="20"/>
-      <c r="S193" s="35"/>
-      <c r="T193" s="33"/>
+      <c r="S193" s="30"/>
+      <c r="T193" s="28"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A194" s="13">
+        <v>44067</v>
+      </c>
+      <c r="B194" s="14">
+        <v>192</v>
+      </c>
+      <c r="C194" s="2">
+        <v>79330</v>
+      </c>
+      <c r="D194" s="3">
+        <v>40504</v>
+      </c>
+      <c r="E194" s="2">
+        <v>3309</v>
+      </c>
+      <c r="F194" s="3">
+        <v>35517</v>
+      </c>
+      <c r="G194" s="2">
+        <v>6491</v>
+      </c>
+      <c r="H194" s="4">
+        <v>825</v>
+      </c>
+      <c r="I194" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A195" s="13">
+        <v>44068</v>
+      </c>
+      <c r="B195" s="14">
+        <v>193</v>
+      </c>
+      <c r="C195" s="2">
+        <v>80390</v>
+      </c>
+      <c r="D195" s="3">
+        <v>41207</v>
+      </c>
+      <c r="E195" s="2">
+        <v>3367</v>
+      </c>
+      <c r="F195" s="3">
+        <v>35816</v>
+      </c>
+      <c r="G195" s="2">
+        <v>20479</v>
+      </c>
+      <c r="H195" s="4">
+        <v>1060</v>
+      </c>
+      <c r="I195" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A196" s="13">
+        <v>44069</v>
+      </c>
+      <c r="B196" s="14">
+        <v>194</v>
+      </c>
+      <c r="C196" s="2">
+        <v>81646</v>
+      </c>
+      <c r="D196" s="3">
+        <v>41939</v>
+      </c>
+      <c r="E196" s="2">
+        <v>3421</v>
+      </c>
+      <c r="F196" s="3">
+        <v>36286</v>
+      </c>
+      <c r="G196" s="2">
+        <v>25754</v>
+      </c>
+      <c r="H196" s="4">
+        <v>1256</v>
+      </c>
+      <c r="I196" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A197" s="13">
+        <v>44070</v>
+      </c>
+      <c r="B197" s="14">
+        <v>195</v>
+      </c>
+      <c r="C197" s="2">
+        <v>83150</v>
+      </c>
+      <c r="D197" s="3">
+        <v>43014</v>
+      </c>
+      <c r="E197" s="2">
+        <v>3459</v>
+      </c>
+      <c r="F197" s="3">
+        <v>36677</v>
+      </c>
+      <c r="G197" s="2">
+        <v>25052</v>
+      </c>
+      <c r="H197" s="4">
+        <v>1504</v>
+      </c>
+      <c r="I197" s="15">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5269D-5A7D-4742-882E-0582346D7044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A185ED4-4FD7-4404-9E92-138FFF492913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="35320" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="-29745" yWindow="75" windowWidth="28800" windowHeight="15465" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Data (zile)</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>17-23-aug</t>
+  </si>
+  <si>
+    <t>24-30aug</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1785,8 +1788,12 @@
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="24"/>
+      <c r="L29" s="26">
+        <v>8280</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="11">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A185ED4-4FD7-4404-9E92-138FFF492913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D72A3E-8519-4DFA-B718-4781EB81D9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29745" yWindow="75" windowWidth="28800" windowHeight="15465" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="1460" yWindow="660" windowWidth="28850" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Data (zile)</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>24-30aug</t>
+  </si>
+  <si>
+    <t>31-6sept</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1826,7 +1829,9 @@
       <c r="J30" s="18"/>
       <c r="K30" s="14"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="24"/>
+      <c r="M30" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
@@ -7415,6 +7420,209 @@
       </c>
       <c r="L200" s="26"/>
       <c r="M200" s="24"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A201" s="11">
+        <v>44074</v>
+      </c>
+      <c r="B201" s="12">
+        <v>199</v>
+      </c>
+      <c r="C201" s="2">
+        <v>87540</v>
+      </c>
+      <c r="D201" s="3">
+        <v>87540</v>
+      </c>
+      <c r="E201" s="2">
+        <v>46050</v>
+      </c>
+      <c r="F201" s="3">
+        <v>3621</v>
+      </c>
+      <c r="G201" s="2">
+        <v>37869</v>
+      </c>
+      <c r="H201" s="4">
+        <v>755</v>
+      </c>
+      <c r="I201" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A202" s="11">
+        <v>44075</v>
+      </c>
+      <c r="B202" s="12">
+        <v>200</v>
+      </c>
+      <c r="C202" s="2">
+        <v>88593</v>
+      </c>
+      <c r="D202" s="3">
+        <v>88593</v>
+      </c>
+      <c r="E202" s="2">
+        <v>46458</v>
+      </c>
+      <c r="F202" s="3">
+        <v>3681</v>
+      </c>
+      <c r="G202" s="2">
+        <v>38454</v>
+      </c>
+      <c r="H202" s="4">
+        <v>1053</v>
+      </c>
+      <c r="I202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A203" s="11">
+        <v>44076</v>
+      </c>
+      <c r="B203" s="12">
+        <v>201</v>
+      </c>
+      <c r="C203" s="2">
+        <v>89891</v>
+      </c>
+      <c r="D203" s="3">
+        <v>89891</v>
+      </c>
+      <c r="E203" s="2">
+        <v>47469</v>
+      </c>
+      <c r="F203" s="3">
+        <v>3721</v>
+      </c>
+      <c r="G203" s="2">
+        <v>38701</v>
+      </c>
+      <c r="H203" s="4">
+        <v>1298</v>
+      </c>
+      <c r="I203" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A204" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B204" s="12">
+        <v>202</v>
+      </c>
+      <c r="C204" s="2">
+        <v>91256</v>
+      </c>
+      <c r="D204" s="3">
+        <v>91256</v>
+      </c>
+      <c r="E204" s="2">
+        <v>48216</v>
+      </c>
+      <c r="F204" s="3">
+        <v>3765</v>
+      </c>
+      <c r="G204" s="2">
+        <v>39275</v>
+      </c>
+      <c r="H204" s="4">
+        <v>1365</v>
+      </c>
+      <c r="I204" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A205" s="11">
+        <v>44078</v>
+      </c>
+      <c r="B205" s="12">
+        <v>203</v>
+      </c>
+      <c r="C205" s="2">
+        <v>92595</v>
+      </c>
+      <c r="D205" s="3">
+        <v>92595</v>
+      </c>
+      <c r="E205" s="2">
+        <v>49157</v>
+      </c>
+      <c r="F205" s="3">
+        <v>3812</v>
+      </c>
+      <c r="G205" s="2">
+        <v>39626</v>
+      </c>
+      <c r="H205" s="4">
+        <v>1339</v>
+      </c>
+      <c r="I205" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A206" s="11">
+        <v>44079</v>
+      </c>
+      <c r="B206" s="12">
+        <v>204</v>
+      </c>
+      <c r="C206" s="2">
+        <v>93864</v>
+      </c>
+      <c r="D206" s="3">
+        <v>93864</v>
+      </c>
+      <c r="E206" s="2">
+        <v>49986</v>
+      </c>
+      <c r="F206" s="3">
+        <v>3850</v>
+      </c>
+      <c r="G206" s="2">
+        <v>40028</v>
+      </c>
+      <c r="H206" s="4">
+        <v>1269</v>
+      </c>
+      <c r="I206" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A207" s="11">
+        <v>44080</v>
+      </c>
+      <c r="B207" s="12">
+        <v>205</v>
+      </c>
+      <c r="C207" s="2">
+        <v>95014</v>
+      </c>
+      <c r="D207" s="3">
+        <v>95014</v>
+      </c>
+      <c r="E207" s="2">
+        <v>50814</v>
+      </c>
+      <c r="F207" s="3">
+        <v>3893</v>
+      </c>
+      <c r="G207" s="2">
+        <v>40307</v>
+      </c>
+      <c r="H207" s="4">
+        <v>1150</v>
+      </c>
+      <c r="I207" s="2">
+        <v>1.02</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D72A3E-8519-4DFA-B718-4781EB81D9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676CFE97-BDE9-4D54-8910-959B6467262B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="660" windowWidth="28850" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="-30300" yWindow="525" windowWidth="28800" windowHeight="15465" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
   <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7108,6 +7108,8 @@
       <c r="I190" s="13">
         <v>1.01</v>
       </c>
+      <c r="J190" s="21"/>
+      <c r="K190" s="13"/>
       <c r="L190" s="26"/>
       <c r="M190" s="24"/>
     </row>
@@ -7139,6 +7141,8 @@
       <c r="I191" s="13">
         <v>1.03</v>
       </c>
+      <c r="J191" s="21"/>
+      <c r="K191" s="13"/>
       <c r="L191" s="26"/>
       <c r="M191" s="24"/>
     </row>
@@ -7170,6 +7174,8 @@
       <c r="I192" s="13">
         <v>1.01</v>
       </c>
+      <c r="J192" s="21"/>
+      <c r="K192" s="13"/>
       <c r="L192" s="26"/>
       <c r="M192" s="24"/>
     </row>
@@ -7201,6 +7207,8 @@
       <c r="I193" s="13">
         <v>1.02</v>
       </c>
+      <c r="J193" s="21"/>
+      <c r="K193" s="13"/>
       <c r="L193" s="26"/>
       <c r="M193" s="24"/>
     </row>
@@ -7232,6 +7240,8 @@
       <c r="I194" s="13">
         <v>1.01</v>
       </c>
+      <c r="J194" s="21"/>
+      <c r="K194" s="13"/>
       <c r="L194" s="26"/>
       <c r="M194" s="24"/>
     </row>
@@ -7263,6 +7273,8 @@
       <c r="I195" s="13">
         <v>1.02</v>
       </c>
+      <c r="J195" s="21"/>
+      <c r="K195" s="13"/>
       <c r="L195" s="26"/>
       <c r="M195" s="24"/>
     </row>
@@ -7294,6 +7306,8 @@
       <c r="I196" s="13">
         <v>1.01</v>
       </c>
+      <c r="J196" s="21"/>
+      <c r="K196" s="13"/>
       <c r="L196" s="26"/>
       <c r="M196" s="24"/>
     </row>
@@ -7325,6 +7339,8 @@
       <c r="I197" s="13">
         <v>1.03</v>
       </c>
+      <c r="J197" s="21"/>
+      <c r="K197" s="13"/>
       <c r="L197" s="26"/>
       <c r="M197" s="24"/>
     </row>
@@ -7356,6 +7372,8 @@
       <c r="I198" s="13">
         <v>1.02</v>
       </c>
+      <c r="J198" s="21"/>
+      <c r="K198" s="13"/>
       <c r="L198" s="26"/>
       <c r="M198" s="24"/>
     </row>
@@ -7387,6 +7405,8 @@
       <c r="I199" s="13">
         <v>1.02</v>
       </c>
+      <c r="J199" s="21"/>
+      <c r="K199" s="13"/>
       <c r="L199" s="26"/>
       <c r="M199" s="24"/>
     </row>
@@ -7418,6 +7438,8 @@
       <c r="I200" s="13">
         <v>1.01</v>
       </c>
+      <c r="J200" s="21"/>
+      <c r="K200" s="13"/>
       <c r="L200" s="26"/>
       <c r="M200" s="24"/>
     </row>
@@ -7428,27 +7450,31 @@
       <c r="B201" s="12">
         <v>199</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="13">
         <v>87540</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="6">
         <v>87540</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="13">
         <v>46050</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="6">
         <v>3621</v>
       </c>
-      <c r="G201" s="2">
+      <c r="G201" s="13">
         <v>37869</v>
       </c>
-      <c r="H201" s="4">
+      <c r="H201" s="20">
         <v>755</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="13">
         <v>1.01</v>
       </c>
+      <c r="J201" s="21"/>
+      <c r="K201" s="13"/>
+      <c r="L201" s="26"/>
+      <c r="M201" s="24"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
@@ -7457,27 +7483,31 @@
       <c r="B202" s="12">
         <v>200</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="13">
         <v>88593</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="6">
         <v>88593</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="13">
         <v>46458</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="6">
         <v>3681</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G202" s="13">
         <v>38454</v>
       </c>
-      <c r="H202" s="4">
+      <c r="H202" s="20">
         <v>1053</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="13">
         <v>1</v>
       </c>
+      <c r="J202" s="21"/>
+      <c r="K202" s="13"/>
+      <c r="L202" s="26"/>
+      <c r="M202" s="24"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
@@ -7486,27 +7516,31 @@
       <c r="B203" s="12">
         <v>201</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="13">
         <v>89891</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="6">
         <v>89891</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="13">
         <v>47469</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="6">
         <v>3721</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G203" s="13">
         <v>38701</v>
       </c>
-      <c r="H203" s="4">
+      <c r="H203" s="20">
         <v>1298</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="13">
         <v>1.02</v>
       </c>
+      <c r="J203" s="21"/>
+      <c r="K203" s="13"/>
+      <c r="L203" s="26"/>
+      <c r="M203" s="24"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
@@ -7515,27 +7549,31 @@
       <c r="B204" s="12">
         <v>202</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="13">
         <v>91256</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="6">
         <v>91256</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="13">
         <v>48216</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="6">
         <v>3765</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204" s="13">
         <v>39275</v>
       </c>
-      <c r="H204" s="4">
+      <c r="H204" s="20">
         <v>1365</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="13">
         <v>1.01</v>
       </c>
+      <c r="J204" s="21"/>
+      <c r="K204" s="13"/>
+      <c r="L204" s="26"/>
+      <c r="M204" s="24"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
@@ -7544,27 +7582,31 @@
       <c r="B205" s="12">
         <v>203</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="13">
         <v>92595</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="6">
         <v>92595</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="13">
         <v>49157</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="6">
         <v>3812</v>
       </c>
-      <c r="G205" s="2">
+      <c r="G205" s="13">
         <v>39626</v>
       </c>
-      <c r="H205" s="4">
+      <c r="H205" s="20">
         <v>1339</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="13">
         <v>1.02</v>
       </c>
+      <c r="J205" s="21"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="26"/>
+      <c r="M205" s="24"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
@@ -7573,27 +7615,31 @@
       <c r="B206" s="12">
         <v>204</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="13">
         <v>93864</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="6">
         <v>93864</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="13">
         <v>49986</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="6">
         <v>3850</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206" s="13">
         <v>40028</v>
       </c>
-      <c r="H206" s="4">
+      <c r="H206" s="20">
         <v>1269</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="13">
         <v>1.02</v>
       </c>
+      <c r="J206" s="21"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="26"/>
+      <c r="M206" s="24"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
@@ -7602,27 +7648,31 @@
       <c r="B207" s="12">
         <v>205</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="13">
         <v>95014</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="6">
         <v>95014</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="13">
         <v>50814</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="6">
         <v>3893</v>
       </c>
-      <c r="G207" s="2">
+      <c r="G207" s="13">
         <v>40307</v>
       </c>
-      <c r="H207" s="4">
+      <c r="H207" s="20">
         <v>1150</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="13">
         <v>1.02</v>
       </c>
+      <c r="J207" s="21"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="26"/>
+      <c r="M207" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676CFE97-BDE9-4D54-8910-959B6467262B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434DB8B-0B03-4761-9113-8B09DC694226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30300" yWindow="525" windowWidth="28800" windowHeight="15465" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="7100" yWindow="1460" windowWidth="28800" windowHeight="15470" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I214" sqref="I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7034,7 +7034,7 @@
         <v>33135</v>
       </c>
       <c r="G188" s="13">
-        <v>21334</v>
+        <v>21344</v>
       </c>
       <c r="H188" s="20">
         <v>1014</v>
@@ -7454,16 +7454,16 @@
         <v>87540</v>
       </c>
       <c r="D201" s="6">
-        <v>87540</v>
+        <v>46050</v>
       </c>
       <c r="E201" s="13">
-        <v>46050</v>
+        <v>3621</v>
       </c>
       <c r="F201" s="6">
-        <v>3621</v>
+        <v>37869</v>
       </c>
       <c r="G201" s="13">
-        <v>37869</v>
+        <v>7313</v>
       </c>
       <c r="H201" s="20">
         <v>755</v>
@@ -7487,16 +7487,16 @@
         <v>88593</v>
       </c>
       <c r="D202" s="6">
-        <v>88593</v>
+        <v>46458</v>
       </c>
       <c r="E202" s="13">
-        <v>46458</v>
+        <v>3681</v>
       </c>
       <c r="F202" s="6">
-        <v>3681</v>
+        <v>38454</v>
       </c>
       <c r="G202" s="13">
-        <v>38454</v>
+        <v>22326</v>
       </c>
       <c r="H202" s="20">
         <v>1053</v>
@@ -7520,16 +7520,16 @@
         <v>89891</v>
       </c>
       <c r="D203" s="6">
-        <v>89891</v>
+        <v>47469</v>
       </c>
       <c r="E203" s="13">
-        <v>47469</v>
+        <v>3721</v>
       </c>
       <c r="F203" s="6">
-        <v>3721</v>
+        <v>38701</v>
       </c>
       <c r="G203" s="13">
-        <v>38701</v>
+        <v>26816</v>
       </c>
       <c r="H203" s="20">
         <v>1298</v>
@@ -7553,16 +7553,16 @@
         <v>91256</v>
       </c>
       <c r="D204" s="6">
-        <v>91256</v>
+        <v>48216</v>
       </c>
       <c r="E204" s="13">
-        <v>48216</v>
+        <v>3765</v>
       </c>
       <c r="F204" s="6">
-        <v>3765</v>
+        <v>39275</v>
       </c>
       <c r="G204" s="13">
-        <v>39275</v>
+        <v>23975</v>
       </c>
       <c r="H204" s="20">
         <v>1365</v>
@@ -7586,16 +7586,16 @@
         <v>92595</v>
       </c>
       <c r="D205" s="6">
-        <v>92595</v>
+        <v>49157</v>
       </c>
       <c r="E205" s="13">
-        <v>49157</v>
+        <v>3812</v>
       </c>
       <c r="F205" s="6">
-        <v>3812</v>
+        <v>39626</v>
       </c>
       <c r="G205" s="13">
-        <v>39626</v>
+        <v>25177</v>
       </c>
       <c r="H205" s="20">
         <v>1339</v>
@@ -7619,16 +7619,16 @@
         <v>93864</v>
       </c>
       <c r="D206" s="6">
-        <v>93864</v>
+        <v>49986</v>
       </c>
       <c r="E206" s="13">
-        <v>49986</v>
+        <v>3850</v>
       </c>
       <c r="F206" s="6">
-        <v>3850</v>
+        <v>40028</v>
       </c>
       <c r="G206" s="13">
-        <v>40028</v>
+        <v>22380</v>
       </c>
       <c r="H206" s="20">
         <v>1269</v>
@@ -7652,16 +7652,16 @@
         <v>95014</v>
       </c>
       <c r="D207" s="6">
-        <v>95014</v>
+        <v>50814</v>
       </c>
       <c r="E207" s="13">
-        <v>50814</v>
+        <v>3893</v>
       </c>
       <c r="F207" s="6">
-        <v>3893</v>
+        <v>40307</v>
       </c>
       <c r="G207" s="13">
-        <v>40307</v>
+        <v>14871</v>
       </c>
       <c r="H207" s="20">
         <v>1150</v>
@@ -7673,6 +7673,72 @@
       <c r="K207" s="13"/>
       <c r="L207" s="26"/>
       <c r="M207" s="24"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A208" s="11">
+        <v>44081</v>
+      </c>
+      <c r="B208" s="12">
+        <v>206</v>
+      </c>
+      <c r="C208" s="13">
+        <v>95897</v>
+      </c>
+      <c r="D208" s="6">
+        <v>51517</v>
+      </c>
+      <c r="E208" s="13">
+        <v>3926</v>
+      </c>
+      <c r="F208" s="6">
+        <v>40454</v>
+      </c>
+      <c r="G208" s="13">
+        <v>7247</v>
+      </c>
+      <c r="H208" s="20">
+        <v>883</v>
+      </c>
+      <c r="I208" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="J208" s="21"/>
+      <c r="K208" s="13"/>
+      <c r="L208" s="26"/>
+      <c r="M208" s="24"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A209" s="11">
+        <v>44082</v>
+      </c>
+      <c r="B209" s="12">
+        <v>207</v>
+      </c>
+      <c r="C209" s="13">
+        <v>97033</v>
+      </c>
+      <c r="D209" s="6">
+        <v>52228</v>
+      </c>
+      <c r="E209" s="13">
+        <v>3967</v>
+      </c>
+      <c r="F209" s="6">
+        <v>40838</v>
+      </c>
+      <c r="G209" s="13">
+        <v>20552</v>
+      </c>
+      <c r="H209" s="20">
+        <v>1139</v>
+      </c>
+      <c r="I209" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="J209" s="21"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="26"/>
+      <c r="M209" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434DB8B-0B03-4761-9113-8B09DC694226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDC2E1-D38C-4716-8A85-D968FA7060E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="1460" windowWidth="28800" windowHeight="15470" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Data (zile)</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>31-6sept</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>14-20</t>
+  </si>
+  <si>
+    <t>21-27</t>
   </si>
 </sst>
 </file>
@@ -673,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I214" sqref="I214"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1828,7 +1837,9 @@
       </c>
       <c r="J30" s="18"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="26"/>
+      <c r="L30" s="26">
+        <v>8229</v>
+      </c>
       <c r="M30" s="24" t="s">
         <v>44</v>
       </c>
@@ -1863,8 +1874,12 @@
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="24"/>
+      <c r="L31" s="26">
+        <v>8484</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
@@ -1896,8 +1911,12 @@
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="14"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="24"/>
+      <c r="L32" s="26">
+        <v>9286</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
@@ -1930,7 +1949,9 @@
       <c r="J33" s="18"/>
       <c r="K33" s="14"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="24"/>
+      <c r="M33" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
@@ -7739,6 +7760,441 @@
       <c r="K209" s="13"/>
       <c r="L209" s="26"/>
       <c r="M209" s="24"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A210" s="11">
+        <v>44083</v>
+      </c>
+      <c r="B210" s="12">
+        <v>208</v>
+      </c>
+      <c r="C210" s="2">
+        <v>98304</v>
+      </c>
+      <c r="D210" s="3">
+        <v>53284</v>
+      </c>
+      <c r="E210" s="2">
+        <v>4018</v>
+      </c>
+      <c r="F210" s="3">
+        <v>41002</v>
+      </c>
+      <c r="G210" s="2">
+        <v>24297</v>
+      </c>
+      <c r="H210" s="4">
+        <v>1271</v>
+      </c>
+      <c r="I210" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A211" s="11">
+        <v>44084</v>
+      </c>
+      <c r="B211" s="12">
+        <v>209</v>
+      </c>
+      <c r="C211" s="2">
+        <v>99684</v>
+      </c>
+      <c r="D211" s="3">
+        <v>54609</v>
+      </c>
+      <c r="E211" s="2">
+        <v>4065</v>
+      </c>
+      <c r="F211" s="3">
+        <v>41010</v>
+      </c>
+      <c r="G211" s="2">
+        <v>25185</v>
+      </c>
+      <c r="H211" s="4">
+        <v>1380</v>
+      </c>
+      <c r="I211" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A212" s="11">
+        <v>44085</v>
+      </c>
+      <c r="B212" s="12">
+        <v>210</v>
+      </c>
+      <c r="C212" s="2">
+        <v>101075</v>
+      </c>
+      <c r="D212" s="3">
+        <v>55965</v>
+      </c>
+      <c r="E212" s="2">
+        <v>4100</v>
+      </c>
+      <c r="F212" s="3">
+        <v>41010</v>
+      </c>
+      <c r="G212" s="2">
+        <v>26149</v>
+      </c>
+      <c r="H212" s="4">
+        <v>1391</v>
+      </c>
+      <c r="I212" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A213" s="11">
+        <v>44086</v>
+      </c>
+      <c r="B213" s="12">
+        <v>211</v>
+      </c>
+      <c r="C213" s="2">
+        <v>102386</v>
+      </c>
+      <c r="D213" s="3">
+        <v>55448</v>
+      </c>
+      <c r="E213" s="2">
+        <v>4127</v>
+      </c>
+      <c r="F213" s="3">
+        <v>42811</v>
+      </c>
+      <c r="G213" s="2">
+        <v>24939</v>
+      </c>
+      <c r="H213" s="4">
+        <v>1311</v>
+      </c>
+      <c r="I213" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A214" s="11">
+        <v>44087</v>
+      </c>
+      <c r="B214" s="12">
+        <v>212</v>
+      </c>
+      <c r="C214" s="2">
+        <v>103495</v>
+      </c>
+      <c r="D214" s="3">
+        <v>56307</v>
+      </c>
+      <c r="E214" s="2">
+        <v>4163</v>
+      </c>
+      <c r="F214" s="3">
+        <v>43025</v>
+      </c>
+      <c r="G214" s="2">
+        <v>14784</v>
+      </c>
+      <c r="H214" s="4">
+        <v>1109</v>
+      </c>
+      <c r="I214" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A215" s="11">
+        <v>44088</v>
+      </c>
+      <c r="B215" s="12">
+        <v>213</v>
+      </c>
+      <c r="C215" s="2">
+        <v>104187</v>
+      </c>
+      <c r="D215" s="3">
+        <v>56758</v>
+      </c>
+      <c r="E215" s="2">
+        <v>4185</v>
+      </c>
+      <c r="F215" s="3">
+        <v>43244</v>
+      </c>
+      <c r="G215" s="2">
+        <v>7331</v>
+      </c>
+      <c r="H215" s="4">
+        <v>692</v>
+      </c>
+      <c r="I215" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A216" s="11">
+        <v>44089</v>
+      </c>
+      <c r="B216" s="12">
+        <v>214</v>
+      </c>
+      <c r="C216" s="2">
+        <v>105298</v>
+      </c>
+      <c r="D216" s="3">
+        <v>57818</v>
+      </c>
+      <c r="E216" s="2">
+        <v>4236</v>
+      </c>
+      <c r="F216" s="3">
+        <v>43244</v>
+      </c>
+      <c r="G216" s="2">
+        <v>21049</v>
+      </c>
+      <c r="H216" s="4">
+        <v>1111</v>
+      </c>
+      <c r="I216" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A217" s="11">
+        <v>44090</v>
+      </c>
+      <c r="B217" s="12">
+        <v>215</v>
+      </c>
+      <c r="C217" s="2">
+        <v>107011</v>
+      </c>
+      <c r="D217" s="3">
+        <v>59482</v>
+      </c>
+      <c r="E217" s="2">
+        <v>4285</v>
+      </c>
+      <c r="F217" s="3">
+        <v>43244</v>
+      </c>
+      <c r="G217" s="2">
+        <v>26520</v>
+      </c>
+      <c r="H217" s="4">
+        <v>1713</v>
+      </c>
+      <c r="I217" s="2">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A218" s="11">
+        <v>44091</v>
+      </c>
+      <c r="B218" s="12">
+        <v>216</v>
+      </c>
+      <c r="C218" s="2">
+        <v>108690</v>
+      </c>
+      <c r="D218" s="3">
+        <v>61134</v>
+      </c>
+      <c r="E218" s="2">
+        <v>4312</v>
+      </c>
+      <c r="F218" s="3">
+        <v>43244</v>
+      </c>
+      <c r="G218" s="2">
+        <v>24125</v>
+      </c>
+      <c r="H218" s="4">
+        <v>1679</v>
+      </c>
+      <c r="I218" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A219" s="11">
+        <v>44092</v>
+      </c>
+      <c r="B219" s="12">
+        <v>217</v>
+      </c>
+      <c r="C219" s="2">
+        <v>110217</v>
+      </c>
+      <c r="D219" s="3">
+        <v>17622</v>
+      </c>
+      <c r="E219" s="2">
+        <v>4360</v>
+      </c>
+      <c r="F219" s="3">
+        <v>88235</v>
+      </c>
+      <c r="G219" s="2">
+        <v>25254</v>
+      </c>
+      <c r="H219" s="4">
+        <v>1527</v>
+      </c>
+      <c r="I219" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A220" s="11">
+        <v>44093</v>
+      </c>
+      <c r="B220" s="12">
+        <v>218</v>
+      </c>
+      <c r="C220" s="2">
+        <v>111550</v>
+      </c>
+      <c r="D220" s="3">
+        <v>18029</v>
+      </c>
+      <c r="E220" s="2">
+        <v>4402</v>
+      </c>
+      <c r="F220" s="3">
+        <v>89119</v>
+      </c>
+      <c r="G220" s="2">
+        <v>24148</v>
+      </c>
+      <c r="H220" s="4">
+        <v>1333</v>
+      </c>
+      <c r="I220" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A221" s="11">
+        <v>44094</v>
+      </c>
+      <c r="B221" s="12">
+        <v>219</v>
+      </c>
+      <c r="C221" s="2">
+        <v>112781</v>
+      </c>
+      <c r="D221" s="3">
+        <v>18575</v>
+      </c>
+      <c r="E221" s="2">
+        <v>4435</v>
+      </c>
+      <c r="F221" s="3">
+        <v>89771</v>
+      </c>
+      <c r="G221" s="2">
+        <v>13391</v>
+      </c>
+      <c r="H221" s="4">
+        <v>1231</v>
+      </c>
+      <c r="I221" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A222" s="11">
+        <v>44095</v>
+      </c>
+      <c r="B222" s="12">
+        <v>220</v>
+      </c>
+      <c r="C222" s="2">
+        <v>113589</v>
+      </c>
+      <c r="D222" s="3">
+        <v>18482</v>
+      </c>
+      <c r="E222" s="2">
+        <v>4458</v>
+      </c>
+      <c r="F222" s="3">
+        <v>90649</v>
+      </c>
+      <c r="G222" s="2">
+        <v>7940</v>
+      </c>
+      <c r="H222" s="4">
+        <v>808</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A223" s="11">
+        <v>44096</v>
+      </c>
+      <c r="B223" s="12">
+        <v>221</v>
+      </c>
+      <c r="C223" s="2">
+        <v>114648</v>
+      </c>
+      <c r="D223" s="3">
+        <v>17976</v>
+      </c>
+      <c r="E223" s="2">
+        <v>4503</v>
+      </c>
+      <c r="F223" s="3">
+        <v>92169</v>
+      </c>
+      <c r="G223" s="2">
+        <v>21978</v>
+      </c>
+      <c r="H223" s="4">
+        <v>1059</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A224" s="11">
+        <v>44097</v>
+      </c>
+      <c r="B224" s="12">
+        <v>222</v>
+      </c>
+      <c r="C224" s="2">
+        <v>116415</v>
+      </c>
+      <c r="D224" s="3">
+        <v>18307</v>
+      </c>
+      <c r="E224" s="2">
+        <v>4550</v>
+      </c>
+      <c r="F224" s="3">
+        <v>93558</v>
+      </c>
+      <c r="G224" s="2">
+        <v>24745</v>
+      </c>
+      <c r="H224" s="4">
+        <v>1767</v>
+      </c>
+      <c r="I224" s="2">
+        <v>1.02</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDC2E1-D38C-4716-8A85-D968FA7060E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27AFA4-E743-46E7-B01A-FD01D8C02C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="2110" yWindow="800" windowWidth="28800" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8196,6 +8196,267 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="11">
+        <v>44098</v>
+      </c>
+      <c r="B225" s="12">
+        <v>223</v>
+      </c>
+      <c r="C225" s="2">
+        <v>118054</v>
+      </c>
+      <c r="D225" s="3">
+        <v>18586</v>
+      </c>
+      <c r="E225" s="2">
+        <v>4591</v>
+      </c>
+      <c r="F225" s="3">
+        <v>94877</v>
+      </c>
+      <c r="G225" s="2">
+        <v>24703</v>
+      </c>
+      <c r="H225" s="4">
+        <v>1639</v>
+      </c>
+      <c r="I225" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="11">
+        <v>44099</v>
+      </c>
+      <c r="B226" s="12">
+        <v>224</v>
+      </c>
+      <c r="C226" s="2">
+        <v>119683</v>
+      </c>
+      <c r="D226" s="3">
+        <v>18892</v>
+      </c>
+      <c r="E226" s="2">
+        <v>4633</v>
+      </c>
+      <c r="F226" s="3">
+        <v>96158</v>
+      </c>
+      <c r="G226" s="2">
+        <v>25494</v>
+      </c>
+      <c r="H226" s="4">
+        <v>1629</v>
+      </c>
+      <c r="I226" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="11">
+        <v>44100</v>
+      </c>
+      <c r="B227" s="12">
+        <v>225</v>
+      </c>
+      <c r="C227" s="2">
+        <v>121235</v>
+      </c>
+      <c r="D227" s="3">
+        <v>18994</v>
+      </c>
+      <c r="E227" s="2">
+        <v>4687</v>
+      </c>
+      <c r="F227" s="3">
+        <v>97554</v>
+      </c>
+      <c r="G227" s="2">
+        <v>24328</v>
+      </c>
+      <c r="H227" s="4">
+        <v>1552</v>
+      </c>
+      <c r="I227" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="11">
+        <v>44101</v>
+      </c>
+      <c r="B228" s="12">
+        <v>226</v>
+      </c>
+      <c r="C228" s="2">
+        <v>122673</v>
+      </c>
+      <c r="D228" s="3">
+        <v>19348</v>
+      </c>
+      <c r="E228" s="2">
+        <v>4718</v>
+      </c>
+      <c r="F228" s="3">
+        <v>98607</v>
+      </c>
+      <c r="G228" s="2">
+        <v>13528</v>
+      </c>
+      <c r="H228" s="4">
+        <v>1438</v>
+      </c>
+      <c r="I228" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="11">
+        <v>44102</v>
+      </c>
+      <c r="B229" s="12">
+        <v>227</v>
+      </c>
+      <c r="C229" s="2">
+        <v>123944</v>
+      </c>
+      <c r="D229" s="3">
+        <v>19852</v>
+      </c>
+      <c r="E229" s="2">
+        <v>4748</v>
+      </c>
+      <c r="F229" s="3">
+        <v>99344</v>
+      </c>
+      <c r="G229" s="2">
+        <v>6162</v>
+      </c>
+      <c r="H229" s="4">
+        <v>1271</v>
+      </c>
+      <c r="I229" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="11">
+        <v>44103</v>
+      </c>
+      <c r="B230" s="12">
+        <v>228</v>
+      </c>
+      <c r="C230" s="2">
+        <v>125414</v>
+      </c>
+      <c r="D230" s="3">
+        <v>19986</v>
+      </c>
+      <c r="E230" s="2">
+        <v>4792</v>
+      </c>
+      <c r="F230" s="3">
+        <v>100636</v>
+      </c>
+      <c r="G230" s="2">
+        <v>21330</v>
+      </c>
+      <c r="H230" s="4">
+        <v>1470</v>
+      </c>
+      <c r="I230" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="11">
+        <v>44104</v>
+      </c>
+      <c r="B231" s="12">
+        <v>229</v>
+      </c>
+      <c r="C231" s="2">
+        <v>127572</v>
+      </c>
+      <c r="D231" s="3">
+        <v>20271</v>
+      </c>
+      <c r="E231" s="2">
+        <v>4825</v>
+      </c>
+      <c r="F231" s="3">
+        <v>102476</v>
+      </c>
+      <c r="G231" s="2">
+        <v>26021</v>
+      </c>
+      <c r="H231" s="4">
+        <v>2158</v>
+      </c>
+      <c r="I231" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="11">
+        <v>44105</v>
+      </c>
+      <c r="B232" s="12">
+        <v>230</v>
+      </c>
+      <c r="C232" s="2">
+        <v>129658</v>
+      </c>
+      <c r="D232" s="3">
+        <v>20802</v>
+      </c>
+      <c r="E232" s="2">
+        <v>4862</v>
+      </c>
+      <c r="F232" s="3">
+        <v>103994</v>
+      </c>
+      <c r="G232" s="2">
+        <v>25797</v>
+      </c>
+      <c r="H232" s="4">
+        <v>2086</v>
+      </c>
+      <c r="I232" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" s="11">
+        <v>44106</v>
+      </c>
+      <c r="B233" s="12">
+        <v>231</v>
+      </c>
+      <c r="C233" s="2">
+        <v>132001</v>
+      </c>
+      <c r="D233" s="3">
+        <v>21504</v>
+      </c>
+      <c r="E233" s="2">
+        <v>4915</v>
+      </c>
+      <c r="F233" s="3">
+        <v>105582</v>
+      </c>
+      <c r="G233" s="2">
+        <v>26011</v>
+      </c>
+      <c r="H233" s="4">
+        <v>2343</v>
+      </c>
+      <c r="I233" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>

--- a/Database/Norbert/Cazuri.xlsx
+++ b/Database/Norbert/Cazuri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27AFA4-E743-46E7-B01A-FD01D8C02C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A30A769-DE24-4845-B4EB-1630CB51E4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="800" windowWidth="28800" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
+    <workbookView xWindow="250" yWindow="3270" windowWidth="28800" windowHeight="15460" xr2:uid="{3D40AD38-2117-48DA-BB6F-ACACFA23F30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C75F8-1448-4344-BF9C-C0D44A9031E9}">
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250:XFD250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8457,6 +8457,470 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="11">
+        <v>44107</v>
+      </c>
+      <c r="B234" s="12">
+        <v>232</v>
+      </c>
+      <c r="C234" s="2">
+        <v>134065</v>
+      </c>
+      <c r="D234" s="3">
+        <v>22060</v>
+      </c>
+      <c r="E234" s="2">
+        <v>4947</v>
+      </c>
+      <c r="F234" s="3">
+        <v>107058</v>
+      </c>
+      <c r="G234" s="2">
+        <v>24940</v>
+      </c>
+      <c r="H234" s="4">
+        <v>2064</v>
+      </c>
+      <c r="I234" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="11">
+        <v>44108</v>
+      </c>
+      <c r="B235" s="12">
+        <v>233</v>
+      </c>
+      <c r="C235" s="2">
+        <v>135900</v>
+      </c>
+      <c r="D235" s="3">
+        <v>22762</v>
+      </c>
+      <c r="E235" s="2">
+        <v>5003</v>
+      </c>
+      <c r="F235" s="3">
+        <v>108135</v>
+      </c>
+      <c r="G235" s="2">
+        <v>13770</v>
+      </c>
+      <c r="H235" s="4">
+        <v>1835</v>
+      </c>
+      <c r="I235" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A236" s="11">
+        <v>44109</v>
+      </c>
+      <c r="B236" s="12">
+        <v>234</v>
+      </c>
+      <c r="C236" s="2">
+        <v>137491</v>
+      </c>
+      <c r="D236" s="3">
+        <v>23917</v>
+      </c>
+      <c r="E236" s="2">
+        <v>5048</v>
+      </c>
+      <c r="F236" s="3">
+        <v>108526</v>
+      </c>
+      <c r="G236" s="2">
+        <v>6537</v>
+      </c>
+      <c r="H236" s="4">
+        <v>1591</v>
+      </c>
+      <c r="I236" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A237" s="11">
+        <v>44110</v>
+      </c>
+      <c r="B237" s="12">
+        <v>235</v>
+      </c>
+      <c r="C237" s="2">
+        <v>139612</v>
+      </c>
+      <c r="D237" s="3">
+        <v>24593</v>
+      </c>
+      <c r="E237" s="2">
+        <v>5121</v>
+      </c>
+      <c r="F237" s="3">
+        <v>109898</v>
+      </c>
+      <c r="G237" s="2">
+        <v>23476</v>
+      </c>
+      <c r="H237" s="4">
+        <v>2121</v>
+      </c>
+      <c r="I237" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="11">
+        <v>44111</v>
+      </c>
+      <c r="B238" s="12">
+        <v>236</v>
+      </c>
+      <c r="C238" s="2">
+        <v>142570</v>
+      </c>
+      <c r="D238" s="3">
+        <v>25803</v>
+      </c>
+      <c r="E238" s="2">
+        <v>5203</v>
+      </c>
+      <c r="F238" s="3">
+        <v>111564</v>
+      </c>
+      <c r="G238" s="2">
+        <v>27849</v>
+      </c>
+      <c r="H238" s="4">
+        <v>2958</v>
+      </c>
+      <c r="I238" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A239" s="11">
+        <v>44112</v>
+      </c>
+      <c r="B239" s="12">
+        <v>237</v>
+      </c>
+      <c r="C239" s="2">
+        <v>145700</v>
+      </c>
+      <c r="D239" s="3">
+        <v>27341</v>
+      </c>
+      <c r="E239" s="2">
+        <v>5247</v>
+      </c>
+      <c r="F239" s="3">
+        <v>113112</v>
+      </c>
+      <c r="G239" s="2">
+        <v>30191</v>
+      </c>
+      <c r="H239" s="4">
+        <v>3130</v>
+      </c>
+      <c r="I239" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A240" s="11">
+        <v>44113</v>
+      </c>
+      <c r="B240" s="12">
+        <v>238</v>
+      </c>
+      <c r="C240" s="2">
+        <v>148886</v>
+      </c>
+      <c r="D240" s="3">
+        <v>28795</v>
+      </c>
+      <c r="E240" s="2">
+        <v>5299</v>
+      </c>
+      <c r="F240" s="3">
+        <v>114792</v>
+      </c>
+      <c r="G240" s="2">
+        <v>29282</v>
+      </c>
+      <c r="H240" s="4">
+        <v>3186</v>
+      </c>
+      <c r="I240" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A241" s="11">
+        <v>44114</v>
+      </c>
+      <c r="B241" s="12">
+        <v>239</v>
+      </c>
+      <c r="C241" s="2">
+        <v>152403</v>
+      </c>
+      <c r="D241" s="3">
+        <v>30417</v>
+      </c>
+      <c r="E241" s="2">
+        <v>5358</v>
+      </c>
+      <c r="F241" s="3">
+        <v>116628</v>
+      </c>
+      <c r="G241" s="2">
+        <v>29284</v>
+      </c>
+      <c r="H241" s="4">
+        <v>3517</v>
+      </c>
+      <c r="I241" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A242" s="11">
+        <v>44115</v>
+      </c>
+      <c r="B242" s="12">
+        <v>240</v>
+      </c>
+      <c r="C242" s="2">
+        <v>155283</v>
+      </c>
+      <c r="D242" s="3">
+        <v>31930</v>
+      </c>
+      <c r="E242" s="2">
+        <v>5411</v>
+      </c>
+      <c r="F242" s="3">
+        <v>117942</v>
+      </c>
+      <c r="G242" s="2">
+        <v>15709</v>
+      </c>
+      <c r="H242" s="4">
+        <v>2880</v>
+      </c>
+      <c r="I242" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A243" s="11">
+        <v>44116</v>
+      </c>
+      <c r="B243" s="12">
+        <v>241</v>
+      </c>
+      <c r="C243" s="2">
+        <v>157352</v>
+      </c>
+      <c r="D243" s="3">
+        <v>32973</v>
+      </c>
+      <c r="E243" s="2">
+        <v>5467</v>
+      </c>
+      <c r="F243" s="3">
+        <v>118912</v>
+      </c>
+      <c r="G243" s="2">
+        <v>10051</v>
+      </c>
+      <c r="H243" s="4">
+        <v>2069</v>
+      </c>
+      <c r="I243" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A244" s="11">
+        <v>44117</v>
+      </c>
+      <c r="B244" s="12">
+        <v>242</v>
+      </c>
+      <c r="C244" s="2">
+        <v>160461</v>
+      </c>
+      <c r="D244" s="3">
+        <v>34411</v>
+      </c>
+      <c r="E244" s="2">
+        <v>5535</v>
+      </c>
+      <c r="F244" s="3">
+        <v>120515</v>
+      </c>
+      <c r="G244" s="2">
+        <v>26718</v>
+      </c>
+      <c r="H244" s="4">
+        <v>3109</v>
+      </c>
+      <c r="I244" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A245" s="11">
+        <v>44118</v>
+      </c>
+      <c r="B245" s="12">
+        <v>243</v>
+      </c>
+      <c r="C245" s="2">
+        <v>164477</v>
+      </c>
+      <c r="D245" s="3">
+        <v>36162</v>
+      </c>
+      <c r="E245" s="2">
+        <v>5601</v>
+      </c>
+      <c r="F245" s="3">
+        <v>122714</v>
+      </c>
+      <c r="G245" s="2">
+        <v>31318</v>
+      </c>
+      <c r="H245" s="4">
+        <v>4016</v>
+      </c>
+      <c r="I245" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A246" s="11">
+        <v>44119</v>
+      </c>
+      <c r="B246" s="12">
+        <v>244</v>
+      </c>
+      <c r="C246" s="2">
+        <v>168490</v>
+      </c>
+      <c r="D246" s="3">
+        <v>37807</v>
+      </c>
+      <c r="E246" s="2">
+        <v>5674</v>
+      </c>
+      <c r="F246" s="3">
+        <v>125009</v>
+      </c>
+      <c r="G246" s="2">
+        <v>29857</v>
+      </c>
+      <c r="H246" s="4">
+        <v>4013</v>
+      </c>
+      <c r="I246" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A247" s="11">
+        <v>44120</v>
+      </c>
+      <c r="B247" s="12">
+        <v>245</v>
+      </c>
+      <c r="C247" s="2">
+        <v>172516</v>
+      </c>
+      <c r="D247" s="3">
+        <v>39691</v>
+      </c>
+      <c r="E247" s="2">
+        <v>5749</v>
+      </c>
+      <c r="F247" s="3">
+        <v>127076</v>
+      </c>
+      <c r="G247" s="2">
+        <v>30431</v>
+      </c>
+      <c r="H247" s="4">
+        <v>4026</v>
+      </c>
+      <c r="I247" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A248" s="11">
+        <v>44121</v>
+      </c>
+      <c r="B248" s="12">
+        <v>246</v>
+      </c>
+      <c r="C248" s="2">
+        <v>176468</v>
+      </c>
+      <c r="D248" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E248" s="2">
+        <v>5812</v>
+      </c>
+      <c r="F248" s="3">
+        <v>129556</v>
+      </c>
+      <c r="G248" s="2">
+        <v>31767</v>
+      </c>
+      <c r="H248" s="4">
+        <v>3952</v>
+      </c>
+      <c r="I248" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A249" s="11">
+        <v>44122</v>
+      </c>
+      <c r="B249" s="12">
+        <v>247</v>
+      </c>
+      <c r="C249" s="2">
+        <v>180388</v>
+      </c>
+      <c r="D249" s="3">
+        <v>43622</v>
+      </c>
+      <c r="E249" s="2">
+        <v>5872</v>
+      </c>
+      <c r="F249" s="3">
+        <v>130894</v>
+      </c>
+      <c r="G249" s="2">
+        <v>19507</v>
+      </c>
+      <c r="H249" s="4">
+        <v>3920</v>
+      </c>
+      <c r="I249" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
